--- a/Marketing-optimization-cockpit.xlsx
+++ b/Marketing-optimization-cockpit.xlsx
@@ -1,25 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamespearce/repos/simu-late/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8361C10B-FEDC-7B43-AF98-F216B27F3769}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43B4A95-EDA6-CA4D-83B9-FFA555BB4BA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="550" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Baseline" sheetId="3" r:id="rId2"/>
-    <sheet name="Chart Data" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="LICENSE" sheetId="4" r:id="rId3"/>
+    <sheet name="Chart Data" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Baseline!$17:$18</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Scenario!$17:$18</definedName>
+    <definedName name="single_cell">#REF!</definedName>
+    <definedName name="test_range">#REF!</definedName>
     <definedName name="TotalMonthlyExpenses" localSheetId="1">Baseline!#REF!</definedName>
     <definedName name="TotalMonthlyExpenses">Scenario!$B$10</definedName>
     <definedName name="TotalMonthlyIncome" localSheetId="1">Baseline!#REF!</definedName>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="34">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -134,6 +140,12 @@
   <si>
     <t>Baseline: 8000 offers</t>
   </si>
+  <si>
+    <t>All rights reserved.</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2018 James Pearce, 3 Crowns Consulting Pty Lts</t>
+  </si>
 </sst>
 </file>
 
@@ -146,7 +158,7 @@
     <numFmt numFmtId="167" formatCode="\+#,##0;[Red]\–#,##0"/>
     <numFmt numFmtId="168" formatCode="\+0%;[Red]\–0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="3" tint="0.24994659260841701"/>
@@ -216,6 +228,25 @@
       <name val="Century Gothic"/>
       <family val="1"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="7">
@@ -294,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -305,8 +336,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -409,13 +441,16 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{DCF9A8DD-102F-3940-A5C1-B9596CF1A0AD}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="35">
@@ -2324,6 +2359,23 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Simulation"/>
+      <sheetName val="xlwings.conf"/>
+      <sheetName val="LICENSE"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="MonthlyIncome" displayName="MonthlyIncome" ref="B18:C21" totalsRowShown="0" dataDxfId="31" headerRowCellStyle="Heading 2">
   <tableColumns count="2">
@@ -2593,7 +2645,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -3299,7 +3351,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{180D37B5-BA66-CC4D-861F-83803752FD1C}">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor theme="3" tint="0.249977111117893"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3896,6 +3948,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B9E871-3D45-1F4F-9600-E1AF2B234FAB}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="36"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <tabColor theme="1" tint="0.249977111117893"/>
